--- a/Config/Datas/FGUI/FGUIType.xlsx
+++ b/Config/Datas/FGUI/FGUIType.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="24225" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>##</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>FGUIType</t>
+  </si>
+  <si>
+    <t>Default</t>
   </si>
   <si>
     <t>Loading</t>
@@ -90,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -113,9 +116,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,15 +158,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,22 +179,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,14 +223,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -229,14 +231,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +280,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,19 +334,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,145 +448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,6 +498,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -524,17 +538,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,7 +1077,7 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1183,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -1200,7 +1203,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -1217,7 +1220,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -1234,7 +1237,7 @@
         <v>22</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1247,8 +1250,12 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
